--- a/data/trans_bre/P23_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.429919345986521</v>
+        <v>-10.02171064262408</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.970710086968596</v>
+        <v>-9.224124159653623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.89615968898983</v>
+        <v>-12.01758457723079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.142852123045337</v>
+        <v>-6.946184919899601</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2775635536388335</v>
+        <v>-0.2996816656829127</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2621843970251453</v>
+        <v>-0.2597385438357706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4173188428885366</v>
+        <v>-0.4210758494710938</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3530775130469114</v>
+        <v>-0.3606986779105855</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.613201532950329</v>
+        <v>3.337120060453381</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.165044163021222</v>
+        <v>4.913269574892778</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4754819951003168</v>
+        <v>0.7348713174696728</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.792674233235773</v>
+        <v>1.577692736636648</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1233822204009061</v>
+        <v>0.1181210430793405</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1732567444990488</v>
+        <v>0.170324367487237</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02224193792691113</v>
+        <v>0.04043801522114334</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1246787485119007</v>
+        <v>0.1084217818374261</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.8544320051240617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.243776287910376</v>
+        <v>2.243776287910379</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008110607497396666</v>
@@ -749,7 +749,7 @@
         <v>-0.03072832387687089</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1143697559012719</v>
+        <v>0.1143697559012721</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.076808743413157</v>
+        <v>-6.833227668806066</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.71220401339049</v>
+        <v>-5.217044114971907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.130922070525238</v>
+        <v>-7.648154522739971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.616966744027911</v>
+        <v>-3.360969052875471</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1861424504051075</v>
+        <v>-0.1779184837274099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1296571722891472</v>
+        <v>-0.1397878423704497</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2307559330494651</v>
+        <v>-0.2439666522660569</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1205001325168138</v>
+        <v>-0.1469993694228308</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.075457000622796</v>
+        <v>7.42619863094259</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.21942423170553</v>
+        <v>9.79126516602124</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.106594861319671</v>
+        <v>5.814435125599141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.871145712188341</v>
+        <v>7.449159883683695</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2219275902123375</v>
+        <v>0.2400829131420138</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.320172560366248</v>
+        <v>0.3098493390237411</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2348039584746952</v>
+        <v>0.2404465766915732</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4786799442476246</v>
+        <v>0.4393834283863872</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-9.922454074963378</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-12.48108167586186</v>
+        <v>-12.48108167586185</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4205943744420955</v>
@@ -849,7 +849,7 @@
         <v>-0.2389369501146053</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4612512001257374</v>
+        <v>-0.4612512001257372</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-26.2606639503101</v>
+        <v>-27.0011056725836</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.43191014551326</v>
+        <v>-14.80132638768777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.80764421485993</v>
+        <v>-18.64511405162402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-18.3855088801611</v>
+        <v>-18.41254197689189</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5691139618283817</v>
+        <v>-0.5813940841679273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3685020990430407</v>
+        <v>-0.351750280334577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4312268969989444</v>
+        <v>-0.4339089017468368</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6119113515519529</v>
+        <v>-0.6314122114385408</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.14814201209654</v>
+        <v>-11.22105783795546</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.273590767503965</v>
+        <v>-1.533673341890538</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.102639408570058</v>
+        <v>-1.004804566493478</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-6.344975608414144</v>
+        <v>-6.715004991016878</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2393960533597027</v>
+        <v>-0.2594177821510071</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.03225867664817246</v>
+        <v>-0.03927546252596646</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.05385065396266488</v>
+        <v>-0.02208845102672059</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.2581785000313286</v>
+        <v>-0.2788540674878843</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.8347517588176145</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-5.172776663687728</v>
+        <v>-5.172776663687717</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2542219014156064</v>
@@ -949,7 +949,7 @@
         <v>0.02229091334229065</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1611593465472652</v>
+        <v>-0.1611593465472649</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-15.19977361941538</v>
+        <v>-15.51291876926707</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.469966059013547</v>
+        <v>-7.85339655773433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.516634927707044</v>
+        <v>-3.633135657128284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.516711727525157</v>
+        <v>-9.097364273784997</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3418797451200894</v>
+        <v>-0.3509708931760282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1989667062196756</v>
+        <v>-0.1857405122136951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08919260102363132</v>
+        <v>-0.09255389460936789</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2759518686780906</v>
+        <v>-0.2705083889841269</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-6.106599463986445</v>
+        <v>-6.257942376506301</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9185408230049291</v>
+        <v>1.680088075168516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.736262200581784</v>
+        <v>5.214903601567231</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.444121992065036</v>
+        <v>-1.039041930154228</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1500534664059623</v>
+        <v>-0.1525183975766729</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0242849101743137</v>
+        <v>0.0456704985779686</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1609104285037241</v>
+        <v>0.1446635115120449</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.04619829307282031</v>
+        <v>-0.0368120623696593</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-9.683658136828049</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-11.4133649442143</v>
+        <v>-11.41336494421429</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3697057467518923</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2491764817059552</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3524273696801976</v>
+        <v>-0.3524273696801972</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-24.96027867078942</v>
+        <v>-24.73848306505018</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.16446476236591</v>
+        <v>-17.12709364349625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.99820225888646</v>
+        <v>-15.12926591007061</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.19217987607174</v>
+        <v>-16.39871340360131</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4715359122272465</v>
+        <v>-0.469583180278261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3920705830035983</v>
+        <v>-0.3931805679956944</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3597570090276351</v>
+        <v>-0.3583866551023896</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4567471468219858</v>
+        <v>-0.4495184713179649</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.8536477413747</v>
+        <v>-11.06554033852677</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.401573309967771</v>
+        <v>-5.853189582740121</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.361832729462485</v>
+        <v>-4.547006216505378</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.593471581877254</v>
+        <v>-6.391205513805049</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2461080812314025</v>
+        <v>-0.2490647785997232</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1682329941378735</v>
+        <v>-0.1587572140042715</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1215426732991809</v>
+        <v>-0.1235326262857747</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2199966885130794</v>
+        <v>-0.2162805352187024</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-9.124637498814595</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.5798169475012174</v>
+        <v>-0.5798169475012203</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.5099003619512293</v>
@@ -1149,7 +1149,7 @@
         <v>-0.3641296888315879</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.05074582504393228</v>
+        <v>-0.0507458250439325</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-19.35371987719568</v>
+        <v>-19.88449828462727</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-10.70665781278234</v>
+        <v>-10.85810178077114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-15.340331963548</v>
+        <v>-15.00893562185998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.694265114180386</v>
+        <v>-8.561094224657522</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6086004554605172</v>
+        <v>-0.6108794256434547</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4417807624955782</v>
+        <v>-0.448883161386081</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.50073618449545</v>
+        <v>-0.5028067579967835</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4625990744406147</v>
+        <v>-0.4646897380849891</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-8.826074102183705</v>
+        <v>-8.63037084665333</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.7632079739782893</v>
+        <v>-0.4483932609815673</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-4.05296750245336</v>
+        <v>-3.676527249477859</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.470241321073755</v>
+        <v>5.283478062063073</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3847926284770468</v>
+        <v>-0.3858320819751377</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.03564313929893356</v>
+        <v>-0.02388129425999388</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1829561886120291</v>
+        <v>-0.1744976359167793</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8655744581533633</v>
+        <v>0.7965791957158207</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>-0.244463701984545</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2661152988456093</v>
+        <v>-0.2661152988456094</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.34692081871532</v>
+        <v>-17.65225322216319</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.24859092080094</v>
+        <v>-12.24143670293668</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.62320984837804</v>
+        <v>-10.92679266336347</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.981452909272411</v>
+        <v>-8.87151846739992</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4258293169477065</v>
+        <v>-0.4301009008350936</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3222858688068699</v>
+        <v>-0.3222386181349851</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2949238057714914</v>
+        <v>-0.305940337955263</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3284881867115124</v>
+        <v>-0.3254473979913125</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-12.92941312901331</v>
+        <v>-13.14014264844976</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.46174848182145</v>
+        <v>-7.308871242271491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.33406011377312</v>
+        <v>-6.328045405187198</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-4.921263017363358</v>
+        <v>-4.91656468994295</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.3374311164881805</v>
+        <v>-0.3400085657692361</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.2084485532022164</v>
+        <v>-0.2068143668265897</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1890313189722286</v>
+        <v>-0.1886258868163839</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.1990682339577844</v>
+        <v>-0.198036933560045</v>
       </c>
     </row>
     <row r="25">
